--- a/MechanicalTestingandAnalysis/Rae2021/CaMa.xlsx
+++ b/MechanicalTestingandAnalysis/Rae2021/CaMa.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auriolrae/Dynamic-Strength-and-Fragmentation/Mechanical Testing and Analysis/Rae2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auriolrae/Dynamic-Strength-and-Fragmentation/MechanicalTestingandAnalysis/Rae2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD50587-7992-594E-B2B1-024032FE5CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8802F843-F4CA-014E-838E-2087A510A53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1780" windowWidth="38400" windowHeight="21140" xr2:uid="{82852CF0-6098-E24F-8D6F-2C3D11CAE912}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16460" xr2:uid="{82852CF0-6098-E24F-8D6F-2C3D11CAE912}"/>
   </bookViews>
   <sheets>
     <sheet name="CaMa" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="CaMa_inertialstresses" localSheetId="0">CaMa!$U$10:$W$25</definedName>
     <definedName name="CaMaSieveData" localSheetId="1">Sheet2!$A$1:$K$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +39,17 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{C8FA27A1-9DDF-254A-B7A3-F6C55C771797}" name="CaMaSieveData" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{D2B5B46C-7AA0-2D49-80E7-158DE323B804}" name="CaMa_inertialstresses" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/auriolrae/Documents/SRDBRD/SHPB/CaMa_inertialstresses.txt" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{C8FA27A1-9DDF-254A-B7A3-F6C55C771797}" name="CaMaSieveData" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/auriolrae/Documents/SRDBRD/FSDs/MatthiasDoerffler/CaMa-results/summary/CaMaSieveData.txt">
       <textFields count="11">
         <textField/>
@@ -59,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -257,6 +268,15 @@
   </si>
   <si>
     <t>CaMa019</t>
+  </si>
+  <si>
+    <t>Max. Long. Inertial Stress (kPa)</t>
+  </si>
+  <si>
+    <t>Max. Rad. Inertial Stress (kPa)</t>
+  </si>
+  <si>
+    <t>Max. Hoop Inertial Stress (kPa)</t>
   </si>
 </sst>
 </file>
@@ -323,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,9 +375,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -369,6 +386,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,7 +417,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="CaMaSieveData" connectionId="1" xr16:uid="{4D5BC240-5C04-524C-87A0-F25AFDC9953A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="CaMa_inertialstresses" connectionId="1" xr16:uid="{BCCA505F-DBB3-2D44-833A-E12AE055AEC2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="CaMaSieveData" connectionId="2" xr16:uid="{4D5BC240-5C04-524C-87A0-F25AFDC9953A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,17 +721,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C5B88F-5F4C-0944-864A-CF8D297690A4}">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="F30" sqref="F30"/>
+      <selection pane="topRight" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -719,10 +749,13 @@
     <col min="17" max="17" width="9.5" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
     <col min="19" max="19" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -740,22 +773,22 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="16"/>
+      <c r="N1" s="18"/>
       <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
@@ -774,9 +807,18 @@
       <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
+      <c r="U1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -821,8 +863,8 @@
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -832,7 +874,7 @@
       <c r="D3" s="4">
         <v>88</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="15">
         <v>41</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -869,8 +911,8 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -880,7 +922,7 @@
       <c r="D4" s="4">
         <v>86.2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="15">
         <v>41.5</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -917,8 +959,8 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -928,7 +970,7 @@
       <c r="D5" s="4">
         <v>86.2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="15">
         <v>41</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -965,8 +1007,8 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -976,7 +1018,7 @@
       <c r="D6" s="4">
         <v>87</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="15">
         <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1013,8 +1055,8 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1024,7 +1066,7 @@
       <c r="D7" s="4">
         <v>86</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="15">
         <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1061,8 +1103,8 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1072,7 +1114,7 @@
       <c r="D8" s="4">
         <v>86</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="15">
         <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1106,11 +1148,12 @@
       <c r="T8" s="4">
         <v>0.193</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1120,7 +1163,7 @@
       <c r="D9" s="4">
         <v>86</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="15">
         <v>41</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1154,11 +1197,12 @@
       <c r="T9" s="4">
         <v>0.23799999999999999</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1168,7 +1212,7 @@
       <c r="D10" s="4">
         <v>85</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="15">
         <v>40.5</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1202,11 +1246,12 @@
       <c r="T10" s="4">
         <v>0.26200000000000001</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1218,7 +1263,7 @@
       <c r="D11" s="2">
         <v>40</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="16">
         <v>39.119999999999997</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1258,11 +1303,18 @@
         <f t="shared" ref="S11:S19" si="0">R11-Q11</f>
         <v>42.8</v>
       </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="U11" s="5">
+        <v>51.741462941446002</v>
+      </c>
+      <c r="V11" s="5">
+        <v>117.016778828697</v>
+      </c>
+      <c r="W11" s="5">
+        <v>164.56941404992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1274,7 +1326,7 @@
       <c r="D12" s="2">
         <v>41.02</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="16">
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1314,11 +1366,18 @@
         <f t="shared" si="0"/>
         <v>100.1</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="U12" s="5">
+        <v>25.876335432414798</v>
+      </c>
+      <c r="V12" s="5">
+        <v>58.521063148498598</v>
+      </c>
+      <c r="W12" s="5">
+        <v>82.302531041514001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1330,7 +1389,7 @@
       <c r="D13" s="2">
         <v>41.33</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="16">
         <v>38.9</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1370,11 +1429,18 @@
         <f t="shared" si="0"/>
         <v>104.89999999999999</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="U13" s="5">
+        <v>44.343297074436997</v>
+      </c>
+      <c r="V13" s="5">
+        <v>100.285331942908</v>
+      </c>
+      <c r="W13" s="5">
+        <v>141.03873376831299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1386,7 +1452,7 @@
       <c r="D14" s="2">
         <v>42.25</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="16">
         <v>38.94</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1426,11 +1492,18 @@
         <f t="shared" si="0"/>
         <v>83.2</v>
       </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="U14" s="5">
+        <v>80.019088346050296</v>
+      </c>
+      <c r="V14" s="5">
+        <v>180.96851984374999</v>
+      </c>
+      <c r="W14" s="5">
+        <v>254.50951197148899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1442,7 +1515,7 @@
       <c r="D15" s="2">
         <v>39.119999999999997</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="16">
         <v>38.909999999999997</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1482,11 +1555,18 @@
         <f t="shared" si="0"/>
         <v>91.5</v>
       </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="4"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="U15" s="5">
+        <v>140.045010516524</v>
+      </c>
+      <c r="V15" s="5">
+        <v>316.72115727033002</v>
+      </c>
+      <c r="W15" s="5">
+        <v>445.428559826401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1498,7 +1578,7 @@
       <c r="D16" s="2">
         <v>41.37</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="16">
         <v>38.81</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1538,11 +1618,18 @@
         <f t="shared" si="0"/>
         <v>75.699999999999989</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="U16" s="5">
+        <v>155.20201255685299</v>
+      </c>
+      <c r="V16" s="5">
+        <v>350.99973106068501</v>
+      </c>
+      <c r="W16" s="5">
+        <v>493.63707196980903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1554,7 +1641,7 @@
       <c r="D17" s="2">
         <v>39.659999999999997</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="16">
         <v>38.96</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1594,11 +1681,18 @@
         <f t="shared" si="0"/>
         <v>97.1</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="4"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="U17" s="5">
+        <v>163.343201381722</v>
+      </c>
+      <c r="V17" s="5">
+        <v>369.41157405786703</v>
+      </c>
+      <c r="W17" s="5">
+        <v>519.53101849572499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1610,7 +1704,7 @@
       <c r="D18" s="2">
         <v>37</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="16">
         <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1650,11 +1744,18 @@
         <f t="shared" si="0"/>
         <v>93.4</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="4"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="U18" s="5">
+        <v>121.10546118462101</v>
+      </c>
+      <c r="V18" s="5">
+        <v>273.888099809344</v>
+      </c>
+      <c r="W18" s="5">
+        <v>385.18923997091002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1666,7 +1767,7 @@
       <c r="D19" s="2">
         <v>41.64</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="16">
         <v>39.03</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1706,11 +1807,18 @@
         <f t="shared" si="0"/>
         <v>72.499999999999986</v>
       </c>
-      <c r="U19" s="11"/>
-      <c r="V19" s="4"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="U19" s="5">
+        <v>68.291211652314104</v>
+      </c>
+      <c r="V19" s="5">
+        <v>154.445142359155</v>
+      </c>
+      <c r="W19" s="5">
+        <v>217.20771017044501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1722,7 +1830,7 @@
       <c r="D20" s="2">
         <v>42.05</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="16">
         <v>38.89</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1759,14 +1867,21 @@
         <v>118.2</v>
       </c>
       <c r="S20" s="5">
-        <f>R20-Q20</f>
+        <f t="shared" ref="S20:S25" si="1">R20-Q20</f>
         <v>102.1</v>
       </c>
-      <c r="U20" s="11"/>
-      <c r="V20" s="4"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="U20" s="5">
+        <v>148.938537564873</v>
+      </c>
+      <c r="V20" s="5">
+        <v>336.834463475093</v>
+      </c>
+      <c r="W20" s="5">
+        <v>473.71540082353698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1778,7 +1893,7 @@
       <c r="D21" s="2">
         <v>37.6</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="16">
         <v>39.799999999999997</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1815,14 +1930,21 @@
         <v>205.3</v>
       </c>
       <c r="S21" s="5">
-        <f>R21-Q21</f>
+        <f t="shared" si="1"/>
         <v>104.50000000000001</v>
       </c>
-      <c r="U21" s="11"/>
-      <c r="V21" s="4"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="U21" s="5">
+        <v>49.102106419280503</v>
+      </c>
+      <c r="V21" s="5">
+        <v>111.04769753786</v>
+      </c>
+      <c r="W21" s="5">
+        <v>156.17465032217001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1834,7 +1956,7 @@
       <c r="D22" s="2">
         <v>33.369999999999997</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="16">
         <v>38.86</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1871,14 +1993,21 @@
         <v>246.3</v>
       </c>
       <c r="S22" s="5">
-        <f>R22-Q22</f>
+        <f t="shared" si="1"/>
         <v>77.800000000000011</v>
       </c>
-      <c r="U22" s="11"/>
-      <c r="V22" s="4"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="U22" s="5">
+        <v>132.864477707248</v>
+      </c>
+      <c r="V22" s="5">
+        <v>300.48190209955601</v>
+      </c>
+      <c r="W22" s="5">
+        <v>422.590085422882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1890,7 +2019,7 @@
       <c r="D23" s="2">
         <v>29.68</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="16">
         <v>38.89</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1927,14 +2056,21 @@
         <v>268.2</v>
       </c>
       <c r="S23" s="5">
-        <f>R23-Q23</f>
+        <f t="shared" si="1"/>
         <v>79.199999999999989</v>
       </c>
-      <c r="U23" s="11"/>
-      <c r="V23" s="4"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="U23" s="5">
+        <v>183.337309518311</v>
+      </c>
+      <c r="V23" s="5">
+        <v>414.62958678286401</v>
+      </c>
+      <c r="W23" s="5">
+        <v>583.12447862291197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1946,7 +2082,7 @@
       <c r="D24" s="2">
         <v>42.99</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="16">
         <v>38.94</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1983,14 +2119,21 @@
         <v>184.3</v>
       </c>
       <c r="S24" s="5">
-        <f>R24-Q24</f>
+        <f t="shared" si="1"/>
         <v>95.4</v>
       </c>
-      <c r="U24" s="11"/>
-      <c r="V24" s="4"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="U24" s="5">
+        <v>39.293470467136302</v>
+      </c>
+      <c r="V24" s="5">
+        <v>88.864811346138893</v>
+      </c>
+      <c r="W24" s="5">
+        <v>124.977204801542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2002,7 +2145,7 @@
       <c r="D25" s="2">
         <v>28.84</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="16">
         <v>38.979999999999997</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -2039,37 +2182,44 @@
         <v>293.5</v>
       </c>
       <c r="S25" s="5">
-        <f>R25-Q25</f>
+        <f t="shared" si="1"/>
         <v>79.5</v>
       </c>
-      <c r="U25" s="11"/>
-      <c r="V25" s="4"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U25" s="5">
+        <v>274.07509240531198</v>
+      </c>
+      <c r="V25" s="5">
+        <v>619.83915118019104</v>
+      </c>
+      <c r="W25" s="5">
+        <v>871.72597755620495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
     </row>
